--- a/96Well/WebContent/WEB-INF/template/template.xlsx
+++ b/96Well/WebContent/WEB-INF/template/template.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6630"/>
+    <workbookView windowWidth="24525" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="2" r:id="rId1"/>
     <sheet name="WpsReserved_CellImgList" sheetId="3" state="veryHidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:N8"/>
+  <oleSize ref="A10:N17"/>
 </workbook>
 </file>
 
@@ -134,11 +134,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,17 +201,80 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -221,81 +284,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,50 +337,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -398,13 +393,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,169 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,17 +587,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,26 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,6 +646,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -675,16 +670,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -695,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -707,148 +702,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -891,13 +880,10 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1014,8 +1000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191625" y="132715"/>
-          <a:ext cx="1452245" cy="481330"/>
+          <a:off x="9313545" y="132715"/>
+          <a:ext cx="1523365" cy="481330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1032,8 +1018,8 @@
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>608965</xdr:rowOff>
     </xdr:to>
@@ -1352,171 +1338,165 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD19"/>
+  <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="9" style="4"/>
-    <col min="3" max="12" width="11.625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.73333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.13333333333333" style="2" customWidth="1"/>
+    <col min="3" max="12" width="12.0916666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.13333333333333" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.95" customHeight="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="17.25" customHeight="1"/>
     <row r="3" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="19"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="19"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="16"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="20"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="17"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="19"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="19"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:14">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.95" customHeight="1"/>
     <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1"/>
-    <row r="11" s="1" customFormat="1" ht="12.95" customHeight="1"/>
-    <row r="12" s="2" customFormat="1" spans="1:3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+    <row r="11" s="1" customFormat="1" ht="267" customHeight="1"/>
+    <row r="12" spans="1:2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
     </row>
-    <row r="13" s="2" customFormat="1"/>
-    <row r="14" s="2" customFormat="1"/>
-    <row r="15" s="2" customFormat="1"/>
-    <row r="16" s="3" customFormat="1"/>
-    <row r="17" s="3" customFormat="1"/>
-    <row r="18" s="3" customFormat="1"/>
-    <row r="19" s="3" customFormat="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:M1"/>
@@ -1534,8 +1514,8 @@
     <mergeCell ref="C8:M8"/>
     <mergeCell ref="A9:XFD11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.118055555555556" right="0.118055555555556" top="0.66875" bottom="0.865972222222222" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/96Well/WebContent/WEB-INF/template/template.xlsx
+++ b/96Well/WebContent/WEB-INF/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12090"/>
+    <workbookView windowWidth="18015" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="2" r:id="rId1"/>
@@ -134,8 +134,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -207,7 +207,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -215,9 +266,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,16 +275,55 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,8 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,97 +345,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +393,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,7 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,7 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,49 +537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,97 +567,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,47 +584,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,8 +605,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,8 +661,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -690,10 +690,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,133 +702,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1340,8 +1340,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="12.95" customHeight="1"/>
     <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1"/>
-    <row r="11" s="1" customFormat="1" ht="267" customHeight="1"/>
+    <row r="11" s="1" customFormat="1" ht="12.75" customHeight="1"/>
     <row r="12" spans="1:2">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>

--- a/96Well/WebContent/WEB-INF/template/template.xlsx
+++ b/96Well/WebContent/WEB-INF/template/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18015" windowHeight="6660"/>
+    <workbookView windowWidth="19455" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <r>
       <rPr>
@@ -127,6 +127,12 @@
   <si>
     <t>1mg / 250μl, 10 mM / 100μl,10 mM</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
 </sst>
 </file>
 
@@ -138,7 +144,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,11 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -201,19 +202,83 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="7"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -223,7 +288,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,85 +316,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,24 +356,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +389,16 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="0" tint="-0.0499893185216834"/>
+        </stop>
+      </gradientFill>
     </fill>
     <fill>
       <gradientFill degree="45">
@@ -382,14 +411,10 @@
       </gradientFill>
     </fill>
     <fill>
-      <gradientFill degree="90">
-        <stop position="0">
-          <color theme="0"/>
-        </stop>
-        <stop position="1">
-          <color theme="0" tint="-0.0499893185216834"/>
-        </stop>
-      </gradientFill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -399,186 +424,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -588,49 +607,116 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,11 +736,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,16 +771,49 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -690,10 +824,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -702,138 +836,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,16 +1008,40 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -972,8 +1130,8 @@
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>414020</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>614045</xdr:rowOff>
     </xdr:to>
@@ -1000,7 +1158,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9313545" y="132715"/>
+          <a:off x="7466330" y="132715"/>
           <a:ext cx="1523365" cy="481330"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1338,19 +1496,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:XFD12"/>
+  <dimension ref="A1:XFD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.73333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.13333333333333" style="2" customWidth="1"/>
-    <col min="3" max="12" width="12.0916666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.13333333333333" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="2" max="16384" width="9.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="57.95" customHeight="1" spans="1:14">
@@ -1388,7 +1543,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="16"/>
+      <c r="N3" s="24"/>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:14">
       <c r="A4" s="6" t="s">
@@ -1408,7 +1563,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:14">
       <c r="A5" s="8" t="s">
@@ -1428,7 +1583,7 @@
       <c r="K5" s="11"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="25"/>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:14">
       <c r="A6" s="6" t="s">
@@ -1448,7 +1603,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="24"/>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:14">
       <c r="A7" s="8" t="s">
@@ -1468,7 +1623,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="24"/>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:14">
       <c r="A8" s="6" t="s">
@@ -1488,15 +1643,39 @@
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="12.95" customHeight="1"/>
     <row r="10" s="1" customFormat="1" ht="12.95" customHeight="1"/>
     <row r="11" s="1" customFormat="1" ht="12.75" customHeight="1"/>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="2:4">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
     </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:5">
+      <c r="A14" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="27.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="A1:M1"/>
